--- a/data/rice.xlsx
+++ b/data/rice.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7088" uniqueCount="5225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7100" uniqueCount="5233">
   <si>
     <t xml:space="preserve">Arroz | INDICADOR DO ARROZ EM CASCA CEPEA/IRGA-RS</t>
   </si>
@@ -15697,6 +15697,30 @@
   </si>
   <si>
     <t xml:space="preserve">65,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65,69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,32</t>
   </si>
 </sst>
 </file>
@@ -15843,7 +15867,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2364"/>
+  <dimension ref="A1:J2368"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -41871,6 +41895,50 @@
       </c>
       <c r="C2364" s="6" t="s">
         <v>2063</v>
+      </c>
+    </row>
+    <row r="2365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2365" s="6" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B2365" s="6" t="s">
+        <v>5226</v>
+      </c>
+      <c r="C2365" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2366" s="6" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B2366" s="6" t="s">
+        <v>5228</v>
+      </c>
+      <c r="C2366" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="2367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2367" s="6" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B2367" s="6" t="s">
+        <v>5230</v>
+      </c>
+      <c r="C2367" s="6" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2368" s="6" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B2368" s="6" t="s">
+        <v>5232</v>
+      </c>
+      <c r="C2368" s="6" t="s">
+        <v>2114</v>
       </c>
     </row>
   </sheetData>

--- a/data/rice.xlsx
+++ b/data/rice.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7100" uniqueCount="5233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7115" uniqueCount="5243">
   <si>
     <t xml:space="preserve">Arroz | INDICADOR DO ARROZ EM CASCA CEPEA/IRGA-RS</t>
   </si>
@@ -15721,6 +15721,36 @@
   </si>
   <si>
     <t xml:space="preserve">66,32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/06/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/07/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67,25</t>
   </si>
 </sst>
 </file>
@@ -15867,7 +15897,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2368"/>
+  <dimension ref="A1:J2373"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -41939,6 +41969,61 @@
       </c>
       <c r="C2368" s="6" t="s">
         <v>2114</v>
+      </c>
+    </row>
+    <row r="2369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2369" s="6" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B2369" s="6" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C2369" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="2370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2370" s="6" t="s">
+        <v>5235</v>
+      </c>
+      <c r="B2370" s="6" t="s">
+        <v>5234</v>
+      </c>
+      <c r="C2370" s="6" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="2371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2371" s="6" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B2371" s="6" t="s">
+        <v>5237</v>
+      </c>
+      <c r="C2371" s="6" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="2372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2372" s="6" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B2372" s="6" t="s">
+        <v>5239</v>
+      </c>
+      <c r="C2372" s="6" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="2373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2373" s="6" t="s">
+        <v>5241</v>
+      </c>
+      <c r="B2373" s="6" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C2373" s="6" t="s">
+        <v>981</v>
       </c>
     </row>
   </sheetData>
